--- a/SANTIAGO.xlsx
+++ b/SANTIAGO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB2754B3-5DBD-4560-B6B5-E68087DA9924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC0C06B7-BC06-4F84-85B5-F8D15F8951D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1356,7 +1356,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{1731E67E-2925-42BD-953D-4C400CFA499F}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{9F622779-BBE5-44C7-B0AC-369E5C84D4BE}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1386,10 +1386,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0580646-A5DA-474F-9844-2BE8DB370532}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD4E1148-B1EB-4F71-948C-89EF5C1496CC}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1427,7 +1427,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A023AB6E-6950-4B9B-8D78-3058B5DA831C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65E98C07-F9CA-4191-8873-D5C1CE88335C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1490,7 +1490,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29F4DDDD-5F21-4788-B7A5-860DCB82352A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D09064D2-4039-4028-AF74-5CE81C5C0AE3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1509,7 +1509,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2F4FA55-4605-845D-4C5A-4C5F97EECE50}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{225830E6-52D3-AAF2-8AC3-BD51939279A2}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1558,7 +1558,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{596A1154-BF6B-0D95-1C5E-A9512E93E5F5}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94A581AA-B786-407C-4DC6-6FB7754D7D5F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1577,7 +1577,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3D0059A-EB7C-4550-7689-059422162613}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A27FFCE3-9497-9A06-DBC9-866DEBF58661}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1608,7 +1608,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D620A9B-EEA6-51C7-6B59-C786AA6F9EAC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA5AB0C4-FA03-4C13-BE50-6E7DEEC9B714}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1639,7 +1639,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC539FEA-7ED6-874A-D24C-745C21F2BB94}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF784AA2-1F42-4B74-1D22-7832CC8E86F8}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1682,7 +1682,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB9B1657-B2D8-4D40-92CA-1169F5FEC6DB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21544655-798B-48EB-8E5C-F643A892BBB7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1720,7 +1720,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCDFDAAD-809F-42D1-B6CF-6BF17630E1AF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{276AC93F-B8C6-4D20-8D1E-3FF4D5A9F807}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1763,7 +1763,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EB1FB80-9BE4-47E1-99E6-DE13F4359C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9255451-74A3-45E5-BD48-B517EEE3C367}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2076,7 +2076,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB88CB2-2A8A-4FEA-99B1-ADD80A4D7D30}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55179FF-7668-4032-98C8-4AE56FC990A1}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/SANTIAGO.xlsx
+++ b/SANTIAGO.xlsx
@@ -8,27 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC0C06B7-BC06-4F84-85B5-F8D15F8951D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B352B3A-C2B7-457C-915C-2CEF4DDB7130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="9" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="8" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="3" r:id="rId4"/>
     <sheet name="BENS-INTERINOS" sheetId="4" r:id="rId5"/>
     <sheet name="TABELIÕES-DOAÇÃO" sheetId="5" r:id="rId6"/>
     <sheet name="CPIP" sheetId="6" r:id="rId7"/>
-    <sheet name="Recolhimento x Eliminacao" sheetId="7" r:id="rId8"/>
-    <sheet name="Desarquivamentos Pendentes" sheetId="8" r:id="rId9"/>
+    <sheet name="RECOLHIMENTO X ELIMINAÇÃO" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="344">
   <si>
     <t>COMARCA</t>
   </si>
@@ -1060,12 +1059,6 @@
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>PEDIDOS PENDENTES</t>
-  </si>
-  <si>
-    <t>%</t>
   </si>
 </sst>
 </file>
@@ -1265,7 +1258,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1336,27 +1329,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{9F622779-BBE5-44C7-B0AC-369E5C84D4BE}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{ECA667EF-7744-4693-A115-EC72D09279B2}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1386,10 +1364,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD4E1148-B1EB-4F71-948C-89EF5C1496CC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04F1F4E6-DB97-4239-9911-1898FBD29FDD}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1427,7 +1405,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65E98C07-F9CA-4191-8873-D5C1CE88335C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2618BB1-CDED-4621-86D8-5E7B988CD8F4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1490,7 +1468,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D09064D2-4039-4028-AF74-5CE81C5C0AE3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1B3306E-4ABC-4094-A5B2-07FF5DF7CEF7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1509,7 +1487,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{225830E6-52D3-AAF2-8AC3-BD51939279A2}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96E448B1-FA25-D03D-938A-CE2D3CC362B7}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1558,7 +1536,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94A581AA-B786-407C-4DC6-6FB7754D7D5F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6531CCC-E4F3-6615-7352-F45054C9A880}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1577,7 +1555,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A27FFCE3-9497-9A06-DBC9-866DEBF58661}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEF2CEEB-7FD8-F6E1-AC4F-B4688A0B7272}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1608,7 +1586,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA5AB0C4-FA03-4C13-BE50-6E7DEEC9B714}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB0CFB04-F1B3-0968-388A-C76D5C5610C5}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1639,7 +1617,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF784AA2-1F42-4B74-1D22-7832CC8E86F8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E1C4A7B-DA57-4F04-31E7-757A5634F77D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1682,7 +1660,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21544655-798B-48EB-8E5C-F643A892BBB7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28A6C9F1-03CA-4CC1-9D6C-80CBBD38C0C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1720,7 +1698,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{276AC93F-B8C6-4D20-8D1E-3FF4D5A9F807}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE1AA328-9824-4950-948B-A08B2BCDF516}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1763,7 +1741,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9255451-74A3-45E5-BD48-B517EEE3C367}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C074328-4A44-4E63-B705-0E457700475B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2076,7 +2054,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55179FF-7668-4032-98C8-4AE56FC990A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75AF3682-BEB5-4C65-BB67-0030799B126C}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2088,98 +2066,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="38"/>
-    <col min="6" max="6" width="2" style="38" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="38" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="38"/>
+    <col min="1" max="5" width="12.5703125" style="33"/>
+    <col min="6" max="6" width="2" style="33" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="33" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="37"/>
+      <c r="F1" s="32"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="37"/>
+      <c r="F2" s="32"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="37"/>
+      <c r="F3" s="32"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="37"/>
+      <c r="F4" s="32"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="37"/>
+      <c r="F5" s="32"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="37"/>
+      <c r="F6" s="32"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="37"/>
+      <c r="F7" s="32"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="37"/>
+      <c r="F8" s="32"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="37"/>
+      <c r="F9" s="32"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="37"/>
+      <c r="F10" s="32"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="37"/>
+      <c r="F11" s="32"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="37"/>
+      <c r="F12" s="32"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="37"/>
+      <c r="F13" s="32"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="37"/>
+      <c r="F14" s="32"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="37"/>
+      <c r="F15" s="32"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="37"/>
+      <c r="F16" s="32"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="37"/>
+      <c r="F17" s="32"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="37"/>
+      <c r="F18" s="32"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="37"/>
+      <c r="F19" s="32"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="37"/>
+      <c r="F20" s="32"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="37"/>
+      <c r="F21" s="32"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="37"/>
+      <c r="F22" s="32"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="37"/>
+      <c r="F23" s="32"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="37"/>
+      <c r="F24" s="32"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="37"/>
+      <c r="F25" s="32"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="37"/>
+      <c r="F26" s="32"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="37"/>
+      <c r="F27" s="32"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="37"/>
+      <c r="F28" s="32"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="37"/>
+      <c r="F29" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -6170,52 +6148,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="C1" s="32" t="s">
-        <v>345</v>
-      </c>
-      <c r="E1" s="33">
-        <v>15072</v>
-      </c>
-      <c r="F1" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
-        <v>285</v>
-      </c>
-      <c r="B2" s="36">
-        <v>169</v>
-      </c>
-      <c r="C2" s="34">
-        <v>1.117577040074064E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/SANTIAGO.xlsx
+++ b/SANTIAGO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B352B3A-C2B7-457C-915C-2CEF4DDB7130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DCD4921-E4E4-4FCA-A5F4-4BF5A539AF4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1334,7 +1334,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{ECA667EF-7744-4693-A115-EC72D09279B2}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{B3933196-4ADE-40D0-B991-5CDD45ACA723}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1364,10 +1364,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04F1F4E6-DB97-4239-9911-1898FBD29FDD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DB21B57-BCEE-4DE3-B6EE-FBC1962D95C2}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1405,7 +1405,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2618BB1-CDED-4621-86D8-5E7B988CD8F4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43C3BC54-48A0-4D1D-A73A-2708D095349E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1468,7 +1468,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1B3306E-4ABC-4094-A5B2-07FF5DF7CEF7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40AD678C-319C-4FAC-B952-3CE0C9F28664}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1487,7 +1487,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96E448B1-FA25-D03D-938A-CE2D3CC362B7}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE4F2D68-6D87-EA11-4EFF-BFD0F524DBE9}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1536,7 +1536,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6531CCC-E4F3-6615-7352-F45054C9A880}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2608C600-65D2-D7A9-9330-721DF7120A7A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1555,7 +1555,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEF2CEEB-7FD8-F6E1-AC4F-B4688A0B7272}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28345984-E9C8-8D3E-5743-8BC8B84DA604}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1586,7 +1586,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB0CFB04-F1B3-0968-388A-C76D5C5610C5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{788A75AF-7090-86C5-2958-4B6D01CDCD61}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1617,7 +1617,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E1C4A7B-DA57-4F04-31E7-757A5634F77D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3A47406-61E2-A49F-0E87-23963741BFC3}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1660,7 +1660,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28A6C9F1-03CA-4CC1-9D6C-80CBBD38C0C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EDF7A0F-CDFF-47B7-8574-8C15FCD232D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1698,7 +1698,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE1AA328-9824-4950-948B-A08B2BCDF516}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A487267-962B-47B0-9CDA-1B991F379B33}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1723,50 +1723,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C074328-4A44-4E63-B705-0E457700475B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2054,7 +2010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75AF3682-BEB5-4C65-BB67-0030799B126C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD97DB99-6F66-41BB-965A-8282A4C4FBCF}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
